--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\CodingThinker\OctoberFullStackBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB45F53-9E4C-4421-B45A-1E43F7205C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963CADC8-57F4-4FA0-989C-15B212C60CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Pranjal gangrade</t>
+  </si>
+  <si>
+    <t>kmohammadalfaiz@gmail.com</t>
+  </si>
+  <si>
+    <t>pranjalgangrade20@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -464,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,48 +621,60 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -674,6 +692,8 @@
     <hyperlink ref="B11" r:id="rId9" xr:uid="{3EE901D5-8361-4EF0-B30F-D793670DA6B0}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{D4556484-A97E-4AA2-B3FA-C32B47C1D6AB}"/>
     <hyperlink ref="B14" r:id="rId11" xr:uid="{A4F3DB60-A247-4FF3-B6CE-0335503E891D}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{D6FFD678-C37F-4591-819A-B3B36646E4A1}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{1AE7286C-80B8-4CE6-A2D0-504E4EFC76F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\CodingThinker\OctoberFullStackBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963CADC8-57F4-4FA0-989C-15B212C60CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B6CDAA-A81F-4F70-840B-028C33A54470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>pranjalgangrade20@gmail.com</t>
+  </si>
+  <si>
+    <t>anuj260401@gmail.com</t>
+  </si>
+  <si>
+    <t>yashikatalawletalawle@gmail.com</t>
+  </si>
+  <si>
+    <t>hrishikamalviya11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -468,19 +477,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="29.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +499,11 @@
       <c r="C1" s="1">
         <v>45776</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -501,8 +513,11 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -513,7 +528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -523,8 +538,11 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -534,8 +552,11 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -545,8 +566,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -556,8 +580,11 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -567,8 +594,11 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -579,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -590,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -600,13 +630,19 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -617,7 +653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -628,22 +664,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -653,28 +695,37 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -694,7 +745,11 @@
     <hyperlink ref="B14" r:id="rId11" xr:uid="{A4F3DB60-A247-4FF3-B6CE-0335503E891D}"/>
     <hyperlink ref="B19" r:id="rId12" xr:uid="{D6FFD678-C37F-4591-819A-B3B36646E4A1}"/>
     <hyperlink ref="B15" r:id="rId13" xr:uid="{1AE7286C-80B8-4CE6-A2D0-504E4EFC76F0}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{803B9454-FC8A-41D8-ABE9-010DE6DDEE90}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{C8996F70-A9BE-41F5-AE63-2D803886B9C4}"/>
+    <hyperlink ref="B13" r:id="rId16" xr:uid="{E47AE1A8-3F0B-4BAF-8290-C8AE98CCE284}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>